--- a/datasets/analyze_in_excel.xlsx
+++ b/datasets/analyze_in_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksoszka-my.sharepoint.com/personal/kamil_soszka_ksoszka_onmicrosoft_com/Documents/Kamil Soszka Business Intelligence/financials/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{5E49E6F0-9CD3-4B37-AF28-4538863F475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409BAB04-CFC0-4DE7-93BA-769E688BFA08}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{5E49E6F0-9CD3-4B37-AF28-4538863F475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECB9F46-7178-45CE-9097-EBEBA3C1862E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C717DE63-15C6-41CE-9B66-C82748A303D0}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -682,6 +682,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Kamil Soszka" refreshedDate="46055.867715856482" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8F79DAFF-17B3-48A0-B748-76E83D015979}">
   <cacheSource type="external" connectionId="1"/>
@@ -844,7 +848,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD528604-BAE3-460A-921A-FA3F9A35024F}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD528604-BAE3-460A-921A-FA3F9A35024F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A5:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
